--- a/biology/Botanique/Astragale_austral/Astragale_austral.xlsx
+++ b/biology/Botanique/Astragale_austral/Astragale_austral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus australis, l'Astragale austral, est une espèce de plantes à fleurs de la famille des Fabaceae. Elle est d’origine eurasiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet astragale est une plante herbacée pérenne.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse en Asie (Kazakhstan, Mongolie), en Europe (Allemagne, Autriche, Bulgarie, Espagne, ex-Yougoslavie, France, Italie, Pologne, Slovaquie, Roumanie, Suisse et Ukraine), et également en Amérique du Nord (Québec).
 </t>
@@ -573,7 +589,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a reçu d'autres appellations, synonymes mais non valides :
 Astragalus gerardii (Vill.) Janka
